--- a/examples/javascript/forms/ChartExperiment/ChartExperiment/Data/Book1.xlsx
+++ b/examples/javascript/forms/ChartExperiment/ChartExperiment/Data/Book1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="26835" windowHeight="13350"/>
@@ -363,7 +363,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,7 +405,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>77</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
